--- a/KiCAD Project/BOM/Master BOM.xlsx
+++ b/KiCAD Project/BOM/Master BOM.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EE\Projects\1016 Breadboard Power Supply\KiCAD Project\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E899F3-AD13-49DB-8DED-3BFE4A227957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6C5D78-2E30-4A1A-A045-9C9CF790DF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="23925" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="22170" windowHeight="20370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$R$49</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="284">
   <si>
     <t>1016 Breadboard Power Supply Master BOM</t>
   </si>
@@ -203,24 +206,12 @@
     <t>Power On LED</t>
   </si>
   <si>
-    <t>Grn 525nm</t>
-  </si>
-  <si>
     <t>LED1</t>
   </si>
   <si>
-    <t>150060GS75000</t>
-  </si>
-  <si>
     <t>Wurth Elektronik</t>
   </si>
   <si>
-    <t>710-150060GS75000</t>
-  </si>
-  <si>
-    <t>C5252984</t>
-  </si>
-  <si>
     <t>RPP Zener Resistor</t>
   </si>
   <si>
@@ -248,33 +239,12 @@
     <t>-</t>
   </si>
   <si>
-    <t>LED Resistor</t>
-  </si>
-  <si>
-    <t>3K74 100mW</t>
-  </si>
-  <si>
     <t>R2</t>
   </si>
   <si>
-    <t>RC0603FR-073K74L</t>
-  </si>
-  <si>
-    <t>603-RC0603FR-073K74L</t>
-  </si>
-  <si>
-    <t>C137728</t>
-  </si>
-  <si>
     <t>Pi Filter Capacitor</t>
   </si>
   <si>
-    <t>22µF 25V</t>
-  </si>
-  <si>
-    <t>22µF</t>
-  </si>
-  <si>
     <t>Samsung</t>
   </si>
   <si>
@@ -293,15 +263,9 @@
     <t>Pi Filter Inductor</t>
   </si>
   <si>
-    <t>2.2µH 4.7A 22mΩ</t>
-  </si>
-  <si>
     <t>L1</t>
   </si>
   <si>
-    <t>2.2µH</t>
-  </si>
-  <si>
     <t>TDK</t>
   </si>
   <si>
@@ -315,13 +279,625 @@
   </si>
   <si>
     <t>MCU Power Regulator</t>
+  </si>
+  <si>
+    <t>Regulator for MCU 3V3</t>
+  </si>
+  <si>
+    <t>TPS62130</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
+    <t>C43590</t>
+  </si>
+  <si>
+    <t>100K 100mW</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>100K</t>
+  </si>
+  <si>
+    <t>RC0603FR-0731K6L</t>
+  </si>
+  <si>
+    <t>603-RC0603FR-0731K6L</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>31K6 100mW</t>
+  </si>
+  <si>
+    <t>31K6</t>
+  </si>
+  <si>
+    <t>C185339</t>
+  </si>
+  <si>
+    <t>Feedback Rtop</t>
+  </si>
+  <si>
+    <t>Feedback Rbot</t>
+  </si>
+  <si>
+    <t>RC0603FR-07100KL</t>
+  </si>
+  <si>
+    <t>603-RC0603FR-07100KL</t>
+  </si>
+  <si>
+    <t>C14675</t>
+  </si>
+  <si>
+    <t>TPS62130RGTR</t>
+  </si>
+  <si>
+    <t>595-TPS62130RGTR</t>
+  </si>
+  <si>
+    <t>2.5MHz Buck Reg</t>
+  </si>
+  <si>
+    <t>Input Capacitor</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>CL10A106MA8NRNC</t>
+  </si>
+  <si>
+    <t>187-CL10A106MA8NRNC</t>
+  </si>
+  <si>
+    <t>C96446</t>
+  </si>
+  <si>
+    <t>Bypass Capacitor</t>
+  </si>
+  <si>
+    <t>100n 25V</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>100n</t>
+  </si>
+  <si>
+    <t>Startup Capacitor</t>
+  </si>
+  <si>
+    <t>3n3</t>
+  </si>
+  <si>
+    <t>3n3 25V</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>Output Capacitor</t>
+  </si>
+  <si>
+    <t>22µ 6V3</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>22µ</t>
+  </si>
+  <si>
+    <t>2.2µ</t>
+  </si>
+  <si>
+    <t>10µ</t>
+  </si>
+  <si>
+    <t>22µ 25V</t>
+  </si>
+  <si>
+    <t>2.2µ 4.7A 22mΩ</t>
+  </si>
+  <si>
+    <t>10µ 25V</t>
+  </si>
+  <si>
+    <t>CL10A226MQ8NRNE</t>
+  </si>
+  <si>
+    <t>187-CL10A226MQ8NRNE</t>
+  </si>
+  <si>
+    <t>C159801</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>Rail T Power Regulator</t>
+  </si>
+  <si>
+    <t>Regulator for Top Rail</t>
+  </si>
+  <si>
+    <t>Feedback Rbot1</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>Feedback Rbot2</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>220K 100mW</t>
+  </si>
+  <si>
+    <t>42K2 100mW</t>
+  </si>
+  <si>
+    <t>220K</t>
+  </si>
+  <si>
+    <t>42K2</t>
+  </si>
+  <si>
+    <t>28K 100mW</t>
+  </si>
+  <si>
+    <t>28K</t>
+  </si>
+  <si>
+    <t>Rail B Power Regulator</t>
+  </si>
+  <si>
+    <t>RC0603FR-0742K2L</t>
+  </si>
+  <si>
+    <t>603-RC0603FR-0742K2L</t>
+  </si>
+  <si>
+    <t>C273741</t>
+  </si>
+  <si>
+    <t>RC0603FR-0728KL</t>
+  </si>
+  <si>
+    <t>603-RC0603FR-0728KL</t>
+  </si>
+  <si>
+    <t>C273777</t>
+  </si>
+  <si>
+    <t>Regulator for Bottom Rail</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>MCU Control</t>
+  </si>
+  <si>
+    <t>Microcontroller</t>
+  </si>
+  <si>
+    <t>STM32C011F4U6TR</t>
+  </si>
+  <si>
+    <t>511-STM32C011F4U6TR</t>
+  </si>
+  <si>
+    <t>C5456188</t>
+  </si>
+  <si>
+    <t>48MHz ARM M0</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>ST Micro</t>
+  </si>
+  <si>
+    <t>C1590</t>
+  </si>
+  <si>
+    <t>CL10B104KA8NNNC</t>
+  </si>
+  <si>
+    <t>187-CL10B104KA8NNNC</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R8BB332</t>
+  </si>
+  <si>
+    <t>603-CC603KRX7R8BB332</t>
+  </si>
+  <si>
+    <t>C519423</t>
+  </si>
+  <si>
+    <t>1K6 100mW</t>
+  </si>
+  <si>
+    <t>1K6</t>
+  </si>
+  <si>
+    <t>Output Discharge Resistor</t>
+  </si>
+  <si>
+    <t>RC0603FR-071K6L</t>
+  </si>
+  <si>
+    <t>603-RC0603FR-071K6L</t>
+  </si>
+  <si>
+    <t>C165489</t>
+  </si>
+  <si>
+    <t>SWD Pogo Connector</t>
+  </si>
+  <si>
+    <t>6-Pin SWD</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>TC2030-IDC</t>
+  </si>
+  <si>
+    <t>Tag-Connect</t>
+  </si>
+  <si>
+    <t>Config Btn</t>
+  </si>
+  <si>
+    <t>50mA 12Vdc 250gf</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>Tactile Switch 6mm</t>
+  </si>
+  <si>
+    <t>C &amp; K COMPONENTS</t>
+  </si>
+  <si>
+    <t>PTS636 SK25J SMTR LFS</t>
+  </si>
+  <si>
+    <t>611-PTS636SK25JSMTRL</t>
+  </si>
+  <si>
+    <t>C2800965</t>
+  </si>
+  <si>
+    <t>Output Enable</t>
+  </si>
+  <si>
+    <t>Error LED</t>
+  </si>
+  <si>
+    <t>Red 625nm</t>
+  </si>
+  <si>
+    <t>LED2</t>
+  </si>
+  <si>
+    <t>150060RS75003</t>
+  </si>
+  <si>
+    <t>710-150060RS75003</t>
+  </si>
+  <si>
+    <t>Output LED</t>
+  </si>
+  <si>
+    <t>5V Top Rail LED</t>
+  </si>
+  <si>
+    <t>5V Bottom Rail LED</t>
+  </si>
+  <si>
+    <t>3V3 Top Rail LED</t>
+  </si>
+  <si>
+    <t>3V3 Bottom Rail LED</t>
+  </si>
+  <si>
+    <t>LED3</t>
+  </si>
+  <si>
+    <t>LED4</t>
+  </si>
+  <si>
+    <t>LED5</t>
+  </si>
+  <si>
+    <t>LED6</t>
+  </si>
+  <si>
+    <t>LED7</t>
+  </si>
+  <si>
+    <t>Green 570nm</t>
+  </si>
+  <si>
+    <t>Amber 605nm</t>
+  </si>
+  <si>
+    <t>Yellow 590nm</t>
+  </si>
+  <si>
+    <t>150060AS75003</t>
+  </si>
+  <si>
+    <t>150060VS75003</t>
+  </si>
+  <si>
+    <t>150060YS75003</t>
+  </si>
+  <si>
+    <t>710-150060AS75003</t>
+  </si>
+  <si>
+    <t>710-150060VS75003</t>
+  </si>
+  <si>
+    <t>710-150060YS75003</t>
+  </si>
+  <si>
+    <t>Grn 570nm</t>
+  </si>
+  <si>
+    <t>1K91</t>
+  </si>
+  <si>
+    <t>Power On LED Resistor</t>
+  </si>
+  <si>
+    <t>2K 125mW</t>
+  </si>
+  <si>
+    <t>2K</t>
+  </si>
+  <si>
+    <t>RC0805FR-072KL</t>
+  </si>
+  <si>
+    <t>603-RC0805FR-072KL</t>
+  </si>
+  <si>
+    <t>C114572</t>
+  </si>
+  <si>
+    <t>RC0603FR-07220KL</t>
+  </si>
+  <si>
+    <t>603-RC0603FR-07220KL</t>
+  </si>
+  <si>
+    <t>C123420</t>
+  </si>
+  <si>
+    <t>Error LED Resistor</t>
+  </si>
+  <si>
+    <t>Output LED Resistor</t>
+  </si>
+  <si>
+    <t>5V Top Rail LED Resistor</t>
+  </si>
+  <si>
+    <t>5V Bottom Rail LED Resistor</t>
+  </si>
+  <si>
+    <t>3V3 Top Rail LED Resistor</t>
+  </si>
+  <si>
+    <t>3V3 Bottom Rail LED Resistor</t>
+  </si>
+  <si>
+    <t>365 100mW</t>
+  </si>
+  <si>
+    <t>402 100mW</t>
+  </si>
+  <si>
+    <t>210 100mW</t>
+  </si>
+  <si>
+    <t>887 100mW</t>
+  </si>
+  <si>
+    <t>AC0603FR-07365RL</t>
+  </si>
+  <si>
+    <t>RC0603FR-07402RL</t>
+  </si>
+  <si>
+    <t>AC0603FR-07210RL</t>
+  </si>
+  <si>
+    <t>RC0603FR-07887RL</t>
+  </si>
+  <si>
+    <t>603-AC0603FR-07365RL</t>
+  </si>
+  <si>
+    <t>603-RC0603FR-07402RL</t>
+  </si>
+  <si>
+    <t>603-AC0603FR-07210RL</t>
+  </si>
+  <si>
+    <t>603-RC0603FR-07887RL</t>
+  </si>
+  <si>
+    <t>C227839</t>
+  </si>
+  <si>
+    <t>C185331</t>
+  </si>
+  <si>
+    <t>C227706</t>
+  </si>
+  <si>
+    <t>C273768</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>R18</t>
+  </si>
+  <si>
+    <t>R19</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>Nreset Pull-Up Resistor</t>
+  </si>
+  <si>
+    <t>10K 100mW</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>RC0603FR-0710KL</t>
+  </si>
+  <si>
+    <t>603-RC0603FR-0710KL</t>
+  </si>
+  <si>
+    <t>C98220</t>
+  </si>
+  <si>
+    <t>Rail Output</t>
+  </si>
+  <si>
+    <t>Pin Header 2x2</t>
+  </si>
+  <si>
+    <t>2x2 Pin Hdr 2.54mm Gold</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>Pin Hdr 2x2</t>
+  </si>
+  <si>
+    <t>Samtec</t>
+  </si>
+  <si>
+    <t>C3346817</t>
+  </si>
+  <si>
+    <t>TSW-102-07-L-D</t>
+  </si>
+  <si>
+    <t>200-TSW10207LD</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>C965802</t>
+  </si>
+  <si>
+    <t>C965852</t>
+  </si>
+  <si>
+    <t>C965801</t>
+  </si>
+  <si>
+    <t>C965799</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,8 +928,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,6 +945,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,12 +967,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -665,24 +1255,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -756,47 +1346,49 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>11</v>
+        <v>1.25</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="O4" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>31</v>
@@ -806,262 +1398,262 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="A5" s="5">
+        <v>26</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>32</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
         <v>33</v>
       </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B7" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
         <v>34</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="B8" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
         <v>35</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1.05</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>60</v>
+      <c r="B9" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>31</v>
@@ -1072,49 +1664,49 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="K10" s="1" t="s">
-        <v>64</v>
+        <v>173</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>66</v>
+        <v>174</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>67</v>
+        <v>172</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>31</v>
@@ -1125,49 +1717,49 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>31</v>
@@ -1178,49 +1770,49 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="F12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>1.25</v>
+        <v>0.8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>31</v>
@@ -1231,49 +1823,49 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>4.5</v>
+        <v>0.8</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>89</v>
+        <v>175</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>90</v>
+        <v>176</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>91</v>
+        <v>177</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>31</v>
@@ -1284,13 +1876,2443 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>23</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>24</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>25</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="J20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M20" s="4"/>
+      <c r="O20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>38</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="O21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>55</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>56</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>10</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>6</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>41</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
+        <v>42</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>43</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <v>44</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>45</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
+        <v>46</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>7</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
+        <v>36</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F34" s="5">
+        <v>1</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="H34" s="5">
+        <v>0</v>
+      </c>
+      <c r="I34" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
+        <v>29</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F35" s="5">
+        <v>1</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H35" s="5">
+        <v>0</v>
+      </c>
+      <c r="I35" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
+        <v>30</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F36" s="5">
+        <v>1</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="H36" s="5">
+        <v>0</v>
+      </c>
+      <c r="I36" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" s="5">
+        <v>31</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F37" s="5">
+        <v>1</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H37" s="5">
+        <v>0</v>
+      </c>
+      <c r="I37" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>54</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>47</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1">
+        <v>365</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="5">
+        <v>48</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1">
+        <v>402</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>49</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1">
+        <v>210</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" s="5">
+        <v>50</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1">
+        <v>210</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>51</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1">
+        <v>887</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
+      <c r="I43" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>8</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
+        <v>52</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1">
+        <v>887</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+      <c r="I45" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>12</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>13</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" s="5">
+        <v>18</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F48" s="5">
+        <v>1</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="H48" s="5">
+        <v>0</v>
+      </c>
+      <c r="I48" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" s="5">
+        <v>27</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F49" s="5">
+        <v>1</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="H49" s="5">
+        <v>0</v>
+      </c>
+      <c r="I49" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="L49" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="M49" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" s="5">
+        <v>20</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F50" s="5">
+        <v>1</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H50" s="5">
+        <v>0</v>
+      </c>
+      <c r="I50" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="M50" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" s="5">
+        <v>21</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F51" s="5">
+        <v>1</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="H51" s="5">
+        <v>0</v>
+      </c>
+      <c r="I51" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="M51" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" s="5">
+        <v>22</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F52" s="5">
+        <v>1</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H52" s="5">
+        <v>0</v>
+      </c>
+      <c r="I52" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="L52" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="M52" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>39</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54" s="5">
+        <v>40</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0</v>
+      </c>
+      <c r="I54" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>11</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0</v>
+      </c>
+      <c r="I55" s="1">
+        <v>1</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56" s="5">
+        <v>19</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F56" s="5">
+        <v>1</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H56" s="5">
+        <v>0</v>
+      </c>
+      <c r="I56" s="5">
+        <v>1</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="L56" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="M56" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A57" s="5">
+        <v>28</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F57" s="5">
+        <v>1</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H57" s="5">
+        <v>0</v>
+      </c>
+      <c r="I57" s="5">
+        <v>1</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="L57" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="M57" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>37</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>5</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F59" s="1">
+        <v>1</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0</v>
+      </c>
+      <c r="I59" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A3:R49" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:R59">
+      <sortCondition ref="E3:E49"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/KiCAD Project/BOM/Master BOM.xlsx
+++ b/KiCAD Project/BOM/Master BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EE\Projects\1016 Breadboard Power Supply\KiCAD Project\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Backup-Protected\EE\Projects\1016 Breadboard Power Supply\KiCAD Project\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6C5D78-2E30-4A1A-A045-9C9CF790DF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43878CD4-0DE1-4079-AE29-2625CD5C65C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="22170" windowHeight="20370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -967,13 +967,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1258,7 +1257,7 @@
   <dimension ref="A1:R59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1398,43 +1397,43 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="1">
         <v>26</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
         <v>0.8</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="1" t="s">
         <v>126</v>
       </c>
       <c r="O5" s="1" t="s">
@@ -1451,43 +1450,43 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="A6" s="1">
         <v>32</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
         <v>0.8</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O6" s="1" t="s">
@@ -1504,43 +1503,43 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="A7" s="1">
         <v>33</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F7" s="5">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
         <v>0.8</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="M7" s="1" t="s">
         <v>172</v>
       </c>
       <c r="O7" s="1" t="s">
@@ -1557,43 +1556,43 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+      <c r="A8" s="1">
         <v>34</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
         <v>0.8</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="1" t="s">
         <v>177</v>
       </c>
       <c r="O8" s="1" t="s">
@@ -1610,43 +1609,43 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+      <c r="A9" s="1">
         <v>35</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F9" s="5">
-        <v>1</v>
-      </c>
-      <c r="G9" s="5" t="s">
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
         <v>0.8</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="M9" s="1" t="s">
         <v>126</v>
       </c>
       <c r="O9" s="1" t="s">
@@ -1928,43 +1927,43 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+      <c r="A15" s="1">
         <v>23</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F15" s="5">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H15" s="5">
-        <v>0</v>
-      </c>
-      <c r="I15" s="5">
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
         <v>0.8</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="L15" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="M15" s="5" t="s">
+      <c r="M15" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O15" s="1" t="s">
@@ -1981,43 +1980,43 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+      <c r="A16" s="1">
         <v>24</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F16" s="5">
-        <v>1</v>
-      </c>
-      <c r="G16" s="5" t="s">
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H16" s="5">
-        <v>0</v>
-      </c>
-      <c r="I16" s="5">
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
         <v>0.8</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="L16" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="M16" s="5" t="s">
+      <c r="M16" s="1" t="s">
         <v>172</v>
       </c>
       <c r="O16" s="1" t="s">
@@ -2034,43 +2033,43 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+      <c r="A17" s="1">
         <v>25</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F17" s="5">
-        <v>1</v>
-      </c>
-      <c r="G17" s="5" t="s">
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H17" s="5">
-        <v>0</v>
-      </c>
-      <c r="I17" s="5">
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
         <v>0.8</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L17" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="M17" s="5" t="s">
+      <c r="M17" s="1" t="s">
         <v>177</v>
       </c>
       <c r="O17" s="1" t="s">
@@ -2226,7 +2225,7 @@
       <c r="K20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="L20" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M20" s="4"/>
@@ -2244,7 +2243,7 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+      <c r="A21" s="1">
         <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -2326,10 +2325,10 @@
       <c r="K22" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="L22" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="M22" s="4" t="s">
         <v>276</v>
       </c>
       <c r="O22" s="1" t="s">
@@ -2379,10 +2378,10 @@
       <c r="K23" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="L23" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="M23" s="4" t="s">
         <v>276</v>
       </c>
       <c r="O23" s="1" t="s">
@@ -2488,7 +2487,7 @@
       <c r="L25" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="M25" s="6" t="s">
+      <c r="M25" s="5" t="s">
         <v>281</v>
       </c>
       <c r="O25" s="1" t="s">
@@ -2541,7 +2540,7 @@
       <c r="L26" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="M26" s="6" t="s">
+      <c r="M26" s="5" t="s">
         <v>283</v>
       </c>
       <c r="O26" s="1" t="s">
@@ -2558,7 +2557,7 @@
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
+      <c r="A27" s="1">
         <v>42</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2594,7 +2593,7 @@
       <c r="L27" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="M27" s="6" t="s">
+      <c r="M27" s="5" t="s">
         <v>282</v>
       </c>
       <c r="O27" s="1" t="s">
@@ -2647,7 +2646,7 @@
       <c r="L28" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="M28" s="6" t="s">
+      <c r="M28" s="5" t="s">
         <v>281</v>
       </c>
       <c r="O28" s="1" t="s">
@@ -2664,7 +2663,7 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
+      <c r="A29" s="1">
         <v>44</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2700,7 +2699,7 @@
       <c r="L29" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="M29" s="6" t="s">
+      <c r="M29" s="5" t="s">
         <v>280</v>
       </c>
       <c r="O29" s="1" t="s">
@@ -2753,7 +2752,7 @@
       <c r="L30" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="M30" s="6" t="s">
+      <c r="M30" s="5" t="s">
         <v>281</v>
       </c>
       <c r="O30" s="1" t="s">
@@ -2770,7 +2769,7 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
+      <c r="A31" s="1">
         <v>46</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -2806,7 +2805,7 @@
       <c r="L31" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="M31" s="6" t="s">
+      <c r="M31" s="5" t="s">
         <v>280</v>
       </c>
       <c r="O31" s="1" t="s">
@@ -2929,43 +2928,43 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
+      <c r="A34" s="1">
         <v>36</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F34" s="5">
-        <v>1</v>
-      </c>
-      <c r="G34" s="5" t="s">
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="H34" s="5">
-        <v>0</v>
-      </c>
-      <c r="I34" s="5">
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
         <v>0.45</v>
       </c>
-      <c r="J34" s="5" t="s">
+      <c r="J34" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K34" s="5" t="s">
+      <c r="K34" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="L34" s="5" t="s">
+      <c r="L34" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="M34" s="5" t="s">
+      <c r="M34" s="1" t="s">
         <v>183</v>
       </c>
       <c r="O34" s="1" t="s">
@@ -2982,43 +2981,43 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" s="5">
+      <c r="A35" s="1">
         <v>29</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F35" s="5">
-        <v>1</v>
-      </c>
-      <c r="G35" s="5" t="s">
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="H35" s="5">
-        <v>0</v>
-      </c>
-      <c r="I35" s="5">
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
         <v>0.45</v>
       </c>
-      <c r="J35" s="5" t="s">
+      <c r="J35" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K35" s="5" t="s">
+      <c r="K35" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="L35" s="5" t="s">
+      <c r="L35" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="M35" s="5" t="s">
+      <c r="M35" s="1" t="s">
         <v>233</v>
       </c>
       <c r="O35" s="1" t="s">
@@ -3035,43 +3034,43 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
+      <c r="A36" s="1">
         <v>30</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F36" s="5">
-        <v>1</v>
-      </c>
-      <c r="G36" s="5" t="s">
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="H36" s="5">
-        <v>0</v>
-      </c>
-      <c r="I36" s="5">
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
         <v>0.45</v>
       </c>
-      <c r="J36" s="5" t="s">
+      <c r="J36" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K36" s="5" t="s">
+      <c r="K36" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="L36" s="5" t="s">
+      <c r="L36" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="M36" s="5" t="s">
+      <c r="M36" s="1" t="s">
         <v>150</v>
       </c>
       <c r="O36" s="1" t="s">
@@ -3088,43 +3087,43 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
-        <v>31</v>
-      </c>
-      <c r="B37" s="5" t="s">
+      <c r="A37" s="1">
+        <v>31</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F37" s="5">
-        <v>1</v>
-      </c>
-      <c r="G37" s="5" t="s">
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="H37" s="5">
-        <v>0</v>
-      </c>
-      <c r="I37" s="5">
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
         <v>0.45</v>
       </c>
-      <c r="J37" s="5" t="s">
+      <c r="J37" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K37" s="5" t="s">
+      <c r="K37" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="L37" s="5" t="s">
+      <c r="L37" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="M37" s="5" t="s">
+      <c r="M37" s="1" t="s">
         <v>153</v>
       </c>
       <c r="O37" s="1" t="s">
@@ -3218,10 +3217,10 @@
       <c r="H39" s="1">
         <v>0</v>
       </c>
-      <c r="I39" s="5">
+      <c r="I39" s="1">
         <v>0.45</v>
       </c>
-      <c r="J39" s="5" t="s">
+      <c r="J39" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K39" s="1" t="s">
@@ -3247,7 +3246,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="5">
+      <c r="A40" s="1">
         <v>48</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -3271,10 +3270,10 @@
       <c r="H40" s="1">
         <v>0</v>
       </c>
-      <c r="I40" s="5">
+      <c r="I40" s="1">
         <v>0.45</v>
       </c>
-      <c r="J40" s="5" t="s">
+      <c r="J40" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K40" s="1" t="s">
@@ -3324,10 +3323,10 @@
       <c r="H41" s="1">
         <v>0</v>
       </c>
-      <c r="I41" s="5">
+      <c r="I41" s="1">
         <v>0.45</v>
       </c>
-      <c r="J41" s="5" t="s">
+      <c r="J41" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K41" s="1" t="s">
@@ -3353,7 +3352,7 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
+      <c r="A42" s="1">
         <v>50</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -3377,10 +3376,10 @@
       <c r="H42" s="1">
         <v>0</v>
       </c>
-      <c r="I42" s="5">
+      <c r="I42" s="1">
         <v>0.45</v>
       </c>
-      <c r="J42" s="5" t="s">
+      <c r="J42" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K42" s="1" t="s">
@@ -3430,10 +3429,10 @@
       <c r="H43" s="1">
         <v>0</v>
       </c>
-      <c r="I43" s="5">
+      <c r="I43" s="1">
         <v>0.45</v>
       </c>
-      <c r="J43" s="5" t="s">
+      <c r="J43" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K43" s="1" t="s">
@@ -3512,7 +3511,7 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45" s="5">
+      <c r="A45" s="1">
         <v>52</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -3536,10 +3535,10 @@
       <c r="H45" s="1">
         <v>0</v>
       </c>
-      <c r="I45" s="5">
+      <c r="I45" s="1">
         <v>0.45</v>
       </c>
-      <c r="J45" s="5" t="s">
+      <c r="J45" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K45" s="1" t="s">
@@ -3671,43 +3670,43 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A48" s="5">
+      <c r="A48" s="1">
         <v>18</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F48" s="5">
-        <v>1</v>
-      </c>
-      <c r="G48" s="5" t="s">
+      <c r="F48" s="1">
+        <v>1</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="H48" s="5">
-        <v>0</v>
-      </c>
-      <c r="I48" s="5">
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
         <v>0.45</v>
       </c>
-      <c r="J48" s="5" t="s">
+      <c r="J48" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K48" s="5" t="s">
+      <c r="K48" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="L48" s="5" t="s">
+      <c r="L48" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="M48" s="5" t="s">
+      <c r="M48" s="1" t="s">
         <v>183</v>
       </c>
       <c r="O48" s="1" t="s">
@@ -3724,43 +3723,43 @@
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A49" s="5">
+      <c r="A49" s="1">
         <v>27</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F49" s="5">
-        <v>1</v>
-      </c>
-      <c r="G49" s="5" t="s">
+      <c r="F49" s="1">
+        <v>1</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="H49" s="5">
-        <v>0</v>
-      </c>
-      <c r="I49" s="5">
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
         <v>0.45</v>
       </c>
-      <c r="J49" s="5" t="s">
+      <c r="J49" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K49" s="5" t="s">
+      <c r="K49" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="L49" s="5" t="s">
+      <c r="L49" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="M49" s="5" t="s">
+      <c r="M49" s="1" t="s">
         <v>183</v>
       </c>
       <c r="O49" s="1" t="s">
@@ -3777,43 +3776,43 @@
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A50" s="5">
+      <c r="A50" s="1">
         <v>20</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F50" s="5">
-        <v>1</v>
-      </c>
-      <c r="G50" s="5" t="s">
+      <c r="F50" s="1">
+        <v>1</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="H50" s="5">
-        <v>0</v>
-      </c>
-      <c r="I50" s="5">
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1">
         <v>0.45</v>
       </c>
-      <c r="J50" s="5" t="s">
+      <c r="J50" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K50" s="5" t="s">
+      <c r="K50" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="L50" s="5" t="s">
+      <c r="L50" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="M50" s="5" t="s">
+      <c r="M50" s="1" t="s">
         <v>233</v>
       </c>
       <c r="O50" s="1" t="s">
@@ -3830,43 +3829,43 @@
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A51" s="5">
+      <c r="A51" s="1">
         <v>21</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F51" s="5">
-        <v>1</v>
-      </c>
-      <c r="G51" s="5" t="s">
+      <c r="F51" s="1">
+        <v>1</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="H51" s="5">
-        <v>0</v>
-      </c>
-      <c r="I51" s="5">
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1">
         <v>0.45</v>
       </c>
-      <c r="J51" s="5" t="s">
+      <c r="J51" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K51" s="5" t="s">
+      <c r="K51" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="L51" s="5" t="s">
+      <c r="L51" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="M51" s="5" t="s">
+      <c r="M51" s="1" t="s">
         <v>150</v>
       </c>
       <c r="O51" s="1" t="s">
@@ -3883,43 +3882,43 @@
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A52" s="5">
+      <c r="A52" s="1">
         <v>22</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E52" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F52" s="5">
-        <v>1</v>
-      </c>
-      <c r="G52" s="5" t="s">
+      <c r="F52" s="1">
+        <v>1</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="H52" s="5">
-        <v>0</v>
-      </c>
-      <c r="I52" s="5">
+      <c r="H52" s="1">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1">
         <v>0.45</v>
       </c>
-      <c r="J52" s="5" t="s">
+      <c r="J52" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K52" s="5" t="s">
+      <c r="K52" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="L52" s="5" t="s">
+      <c r="L52" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="M52" s="5" t="s">
+      <c r="M52" s="1" t="s">
         <v>153</v>
       </c>
       <c r="O52" s="1" t="s">
@@ -3989,7 +3988,7 @@
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A54" s="5">
+      <c r="A54" s="1">
         <v>40</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -4095,43 +4094,43 @@
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A56" s="5">
+      <c r="A56" s="1">
         <v>19</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E56" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F56" s="5">
-        <v>1</v>
-      </c>
-      <c r="G56" s="5" t="s">
+      <c r="F56" s="1">
+        <v>1</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H56" s="5">
-        <v>0</v>
-      </c>
-      <c r="I56" s="5">
-        <v>1</v>
-      </c>
-      <c r="J56" s="5" t="s">
+      <c r="H56" s="1">
+        <v>0</v>
+      </c>
+      <c r="I56" s="1">
+        <v>1</v>
+      </c>
+      <c r="J56" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K56" s="5" t="s">
+      <c r="K56" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="L56" s="5" t="s">
+      <c r="L56" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="M56" s="5" t="s">
+      <c r="M56" s="1" t="s">
         <v>84</v>
       </c>
       <c r="O56" s="1" t="s">
@@ -4148,43 +4147,43 @@
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A57" s="5">
+      <c r="A57" s="1">
         <v>28</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E57" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F57" s="5">
-        <v>1</v>
-      </c>
-      <c r="G57" s="5" t="s">
+      <c r="F57" s="1">
+        <v>1</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H57" s="5">
-        <v>0</v>
-      </c>
-      <c r="I57" s="5">
-        <v>1</v>
-      </c>
-      <c r="J57" s="5" t="s">
+      <c r="H57" s="1">
+        <v>0</v>
+      </c>
+      <c r="I57" s="1">
+        <v>1</v>
+      </c>
+      <c r="J57" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K57" s="5" t="s">
+      <c r="K57" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="L57" s="5" t="s">
+      <c r="L57" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="M57" s="5" t="s">
+      <c r="M57" s="1" t="s">
         <v>84</v>
       </c>
       <c r="O57" s="1" t="s">
@@ -4314,6 +4313,6 @@
   </autoFilter>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/KiCAD Project/BOM/Master BOM.xlsx
+++ b/KiCAD Project/BOM/Master BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Backup-Protected\EE\Projects\1016 Breadboard Power Supply\KiCAD Project\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EE\Projects\1016 Breadboard Power Supply\KiCAD Project\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43878CD4-0DE1-4079-AE29-2625CD5C65C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BFE92F-94D9-4093-B163-515A2BD3D8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="22170" windowHeight="20370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="289">
   <si>
     <t>1016 Breadboard Power Supply Master BOM</t>
   </si>
@@ -575,24 +575,9 @@
     <t>C519423</t>
   </si>
   <si>
-    <t>1K6 100mW</t>
-  </si>
-  <si>
-    <t>1K6</t>
-  </si>
-  <si>
     <t>Output Discharge Resistor</t>
   </si>
   <si>
-    <t>RC0603FR-071K6L</t>
-  </si>
-  <si>
-    <t>603-RC0603FR-071K6L</t>
-  </si>
-  <si>
-    <t>C165489</t>
-  </si>
-  <si>
     <t>SWD Pogo Connector</t>
   </si>
   <si>
@@ -891,6 +876,36 @@
   </si>
   <si>
     <t>C965799</t>
+  </si>
+  <si>
+    <t>TPS62130A</t>
+  </si>
+  <si>
+    <t>TPS62130ARGTR</t>
+  </si>
+  <si>
+    <t>595-TPS62130ARGTR</t>
+  </si>
+  <si>
+    <t>C337502</t>
+  </si>
+  <si>
+    <t>Root</t>
+  </si>
+  <si>
+    <t>Heat Sink</t>
+  </si>
+  <si>
+    <t>HS1</t>
+  </si>
+  <si>
+    <t>HSB01-080808</t>
+  </si>
+  <si>
+    <t>8.5mm x 8.5mm Al</t>
+  </si>
+  <si>
+    <t>490-HSB01-080808</t>
   </si>
 </sst>
 </file>
@@ -1254,10 +1269,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R59"/>
+  <dimension ref="A1:R60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1345,49 +1360,47 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="F4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>1.25</v>
+        <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>71</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="4"/>
       <c r="O4" s="1" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>31</v>
@@ -1398,49 +1411,49 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="M5" s="1" t="s">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>31</v>
@@ -1451,49 +1464,49 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>159</v>
+        <v>36</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>31</v>
@@ -1504,49 +1517,49 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>173</v>
+        <v>44</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>174</v>
+        <v>46</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>172</v>
+        <v>47</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>31</v>
@@ -1557,49 +1570,49 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>161</v>
+        <v>49</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>175</v>
+        <v>50</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>176</v>
+        <v>52</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>177</v>
+        <v>53</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>31</v>
@@ -1610,49 +1623,49 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>116</v>
+        <v>218</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>162</v>
+        <v>55</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>118</v>
+        <v>213</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>124</v>
+        <v>213</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>126</v>
+        <v>216</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>276</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>31</v>
@@ -1663,43 +1676,43 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>262</v>
+        <v>59</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>110</v>
+        <v>219</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>173</v>
+        <v>60</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>174</v>
+        <v>62</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>172</v>
+        <v>63</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>65</v>
@@ -1716,43 +1729,43 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>102</v>
+        <v>220</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>123</v>
+        <v>221</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>120</v>
+        <v>222</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>104</v>
+        <v>223</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>105</v>
+        <v>224</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>106</v>
+        <v>225</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>65</v>
@@ -1769,43 +1782,43 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>0.8</v>
+        <v>1.25</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>68</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>173</v>
+        <v>69</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>174</v>
+        <v>70</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>172</v>
+        <v>71</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>65</v>
@@ -1822,49 +1835,49 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>0.8</v>
+        <v>4.5</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>31</v>
@@ -1875,49 +1888,49 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>118</v>
+        <v>279</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>124</v>
+        <v>280</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>125</v>
+        <v>281</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>126</v>
+        <v>282</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>31</v>
@@ -1928,43 +1941,43 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>65</v>
@@ -1981,43 +1994,43 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
       </c>
       <c r="I16" s="1">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>173</v>
+        <v>88</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>174</v>
+        <v>89</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>172</v>
+        <v>93</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>65</v>
@@ -2034,25 +2047,25 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
@@ -2061,16 +2074,16 @@
         <v>0.8</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>175</v>
+        <v>104</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>176</v>
+        <v>105</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>177</v>
+        <v>106</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>65</v>
@@ -2087,49 +2100,49 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
       </c>
       <c r="I18" s="1">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>39</v>
+        <v>174</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>31</v>
@@ -2140,49 +2153,49 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
       </c>
       <c r="I19" s="1">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>24</v>
+        <v>175</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>26</v>
+        <v>176</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>25</v>
+        <v>177</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>31</v>
@@ -2193,47 +2206,49 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
       </c>
       <c r="I20" s="1">
-        <v>11</v>
+        <v>0.8</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M20" s="4"/>
+        <v>124</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="O20" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>31</v>
@@ -2244,45 +2259,49 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>185</v>
+        <v>259</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>187</v>
+        <v>261</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
       </c>
       <c r="I21" s="1">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>188</v>
+        <v>61</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
+        <v>262</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>264</v>
+      </c>
       <c r="O21" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="Q21" s="1" t="s">
         <v>31</v>
@@ -2293,49 +2312,49 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>270</v>
+        <v>128</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>271</v>
+        <v>129</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>272</v>
+        <v>101</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>273</v>
+        <v>131</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>274</v>
+        <v>81</v>
       </c>
       <c r="H22" s="1">
         <v>0</v>
       </c>
       <c r="I22" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>275</v>
+        <v>83</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>276</v>
+        <v>99</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>31</v>
@@ -2346,43 +2365,43 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>270</v>
+        <v>128</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>271</v>
+        <v>94</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>272</v>
+        <v>141</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>279</v>
+        <v>132</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>274</v>
+        <v>143</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
       </c>
       <c r="I23" s="1">
-        <v>0.9</v>
+        <v>0.45</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>275</v>
+        <v>61</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>276</v>
+        <v>226</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>65</v>
@@ -2399,49 +2418,49 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="F24" s="1">
         <v>1</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="H24" s="1">
         <v>0</v>
       </c>
       <c r="I24" s="1">
-        <v>4.5</v>
+        <v>0.45</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>31</v>
@@ -2452,49 +2471,49 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>223</v>
+        <v>145</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>218</v>
+        <v>146</v>
       </c>
       <c r="H25" s="1">
         <v>0</v>
       </c>
       <c r="I25" s="1">
-        <v>0.7</v>
+        <v>0.45</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>218</v>
+        <v>151</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>281</v>
+        <v>152</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>31</v>
@@ -2505,49 +2524,49 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>199</v>
+        <v>102</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>201</v>
+        <v>136</v>
       </c>
       <c r="F26" s="1">
         <v>1</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="H26" s="1">
         <v>0</v>
       </c>
       <c r="I26" s="1">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>202</v>
+        <v>104</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>283</v>
+        <v>105</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>31</v>
@@ -2558,49 +2577,49 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>204</v>
+        <v>107</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>215</v>
+        <v>108</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>209</v>
+        <v>137</v>
       </c>
       <c r="F27" s="1">
         <v>1</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>217</v>
+        <v>110</v>
       </c>
       <c r="H27" s="1">
         <v>0</v>
       </c>
       <c r="I27" s="1">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>217</v>
+        <v>173</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>282</v>
+        <v>174</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>31</v>
@@ -2611,49 +2630,49 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>205</v>
+        <v>111</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>214</v>
+        <v>113</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>210</v>
+        <v>138</v>
       </c>
       <c r="F28" s="1">
         <v>1</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>218</v>
+        <v>112</v>
       </c>
       <c r="H28" s="1">
         <v>0</v>
       </c>
       <c r="I28" s="1">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>218</v>
+        <v>175</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>281</v>
+        <v>176</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>31</v>
@@ -2664,49 +2683,49 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>206</v>
+        <v>115</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>216</v>
+        <v>116</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>211</v>
+        <v>139</v>
       </c>
       <c r="F29" s="1">
         <v>1</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>219</v>
+        <v>118</v>
       </c>
       <c r="H29" s="1">
         <v>0</v>
       </c>
       <c r="I29" s="1">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>219</v>
+        <v>124</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>280</v>
+        <v>125</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>31</v>
@@ -2717,49 +2736,49 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>214</v>
+        <v>259</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>212</v>
+        <v>127</v>
       </c>
       <c r="F30" s="1">
         <v>1</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>218</v>
+        <v>261</v>
       </c>
       <c r="H30" s="1">
         <v>0</v>
       </c>
       <c r="I30" s="1">
-        <v>0.7</v>
+        <v>0.45</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>218</v>
+        <v>262</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>281</v>
+        <v>263</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>31</v>
@@ -2770,43 +2789,43 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>208</v>
+        <v>154</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>216</v>
+        <v>101</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="F31" s="1">
         <v>1</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>219</v>
+        <v>81</v>
       </c>
       <c r="H31" s="1">
         <v>0</v>
       </c>
       <c r="I31" s="1">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>219</v>
+        <v>99</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="M31" s="5" t="s">
-        <v>280</v>
+        <v>100</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>31</v>
@@ -2823,49 +2842,49 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>43</v>
+        <v>156</v>
       </c>
       <c r="F32" s="1">
         <v>1</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="H32" s="1">
         <v>0</v>
       </c>
       <c r="I32" s="1">
-        <v>0.65</v>
+        <v>0.45</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>44</v>
+        <v>226</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>46</v>
+        <v>227</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>47</v>
+        <v>228</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>31</v>
@@ -2876,25 +2895,25 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>59</v>
+        <v>157</v>
       </c>
       <c r="F33" s="1">
         <v>1</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>224</v>
+        <v>144</v>
       </c>
       <c r="H33" s="1">
         <v>0</v>
@@ -2906,13 +2925,13 @@
         <v>61</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="O33" s="1" t="s">
         <v>65</v>
@@ -2929,25 +2948,25 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>147</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F34" s="1">
         <v>1</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="H34" s="1">
         <v>0</v>
@@ -2959,13 +2978,13 @@
         <v>61</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="O34" s="1" t="s">
         <v>65</v>
@@ -2982,43 +3001,43 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>147</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F35" s="1">
         <v>1</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="H35" s="1">
         <v>0</v>
       </c>
       <c r="I35" s="1">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>231</v>
+        <v>104</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>232</v>
+        <v>105</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>233</v>
+        <v>106</v>
       </c>
       <c r="O35" s="1" t="s">
         <v>65</v>
@@ -3035,43 +3054,43 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>147</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F36" s="1">
         <v>1</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="H36" s="1">
         <v>0</v>
       </c>
       <c r="I36" s="1">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="O36" s="1" t="s">
         <v>65</v>
@@ -3088,43 +3107,43 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>147</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F37" s="1">
         <v>1</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="H37" s="1">
         <v>0</v>
       </c>
       <c r="I37" s="1">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="O37" s="1" t="s">
         <v>65</v>
@@ -3141,43 +3160,43 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>263</v>
+        <v>115</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>264</v>
+        <v>116</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>265</v>
+        <v>162</v>
       </c>
       <c r="F38" s="1">
         <v>1</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>266</v>
+        <v>118</v>
       </c>
       <c r="H38" s="1">
         <v>0</v>
       </c>
       <c r="I38" s="1">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>267</v>
+        <v>124</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>268</v>
+        <v>125</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>269</v>
+        <v>126</v>
       </c>
       <c r="O38" s="1" t="s">
         <v>65</v>
@@ -3194,25 +3213,25 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>234</v>
+        <v>178</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>256</v>
+        <v>140</v>
       </c>
       <c r="F39" s="1">
         <v>1</v>
       </c>
-      <c r="G39" s="1">
-        <v>365</v>
+      <c r="G39" s="1" t="s">
+        <v>261</v>
       </c>
       <c r="H39" s="1">
         <v>0</v>
@@ -3224,19 +3243,19 @@
         <v>61</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="Q39" s="1" t="s">
         <v>31</v>
@@ -3247,43 +3266,43 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>235</v>
+        <v>165</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>241</v>
+        <v>169</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>258</v>
+        <v>170</v>
       </c>
       <c r="F40" s="1">
         <v>1</v>
       </c>
-      <c r="G40" s="1">
-        <v>402</v>
+      <c r="G40" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="H40" s="1">
         <v>0</v>
       </c>
       <c r="I40" s="1">
-        <v>0.45</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>61</v>
+        <v>171</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>245</v>
+        <v>166</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>249</v>
+        <v>167</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>253</v>
+        <v>168</v>
       </c>
       <c r="O40" s="1" t="s">
         <v>31</v>
@@ -3300,44 +3319,40 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>242</v>
+        <v>180</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>257</v>
+        <v>181</v>
       </c>
       <c r="F41" s="1">
         <v>1</v>
       </c>
-      <c r="G41" s="1">
-        <v>210</v>
+      <c r="G41" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="H41" s="1">
         <v>0</v>
       </c>
       <c r="I41" s="1">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>61</v>
+        <v>183</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>254</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
       <c r="O41" s="1" t="s">
         <v>31</v>
       </c>
@@ -3353,43 +3368,43 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>237</v>
+        <v>193</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>242</v>
+        <v>185</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>259</v>
+        <v>186</v>
       </c>
       <c r="F42" s="1">
         <v>1</v>
       </c>
-      <c r="G42" s="1">
-        <v>210</v>
+      <c r="G42" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="H42" s="1">
         <v>0</v>
       </c>
       <c r="I42" s="1">
-        <v>0.45</v>
+        <v>2.7</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>61</v>
+        <v>189</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>246</v>
+        <v>190</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>250</v>
+        <v>191</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>254</v>
+        <v>192</v>
       </c>
       <c r="O42" s="1" t="s">
         <v>31</v>
@@ -3406,43 +3421,43 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>238</v>
+        <v>184</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>243</v>
+        <v>185</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>260</v>
+        <v>187</v>
       </c>
       <c r="F43" s="1">
         <v>1</v>
       </c>
-      <c r="G43" s="1">
-        <v>887</v>
+      <c r="G43" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="H43" s="1">
         <v>0</v>
       </c>
       <c r="I43" s="1">
-        <v>0.45</v>
+        <v>2.7</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>61</v>
+        <v>189</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>247</v>
+        <v>190</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>251</v>
+        <v>191</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>255</v>
+        <v>192</v>
       </c>
       <c r="O43" s="1" t="s">
         <v>31</v>
@@ -3459,49 +3474,49 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="F44" s="1">
         <v>1</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="H44" s="1">
         <v>0</v>
       </c>
       <c r="I44" s="1">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>230</v>
+        <v>198</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>278</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="Q44" s="1" t="s">
         <v>31</v>
@@ -3512,43 +3527,43 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>239</v>
+        <v>199</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>261</v>
+        <v>204</v>
       </c>
       <c r="F45" s="1">
         <v>1</v>
       </c>
-      <c r="G45" s="1">
-        <v>887</v>
+      <c r="G45" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="H45" s="1">
         <v>0</v>
       </c>
       <c r="I45" s="1">
-        <v>0.45</v>
+        <v>0.7</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>255</v>
+        <v>215</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>277</v>
       </c>
       <c r="O45" s="1" t="s">
         <v>31</v>
@@ -3565,49 +3580,49 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>94</v>
+        <v>200</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>85</v>
+        <v>209</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>86</v>
+        <v>205</v>
       </c>
       <c r="F46" s="1">
         <v>1</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>87</v>
+        <v>213</v>
       </c>
       <c r="H46" s="1">
         <v>0</v>
       </c>
       <c r="I46" s="1">
-        <v>0.45</v>
+        <v>0.7</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>96</v>
+        <v>213</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>98</v>
+        <v>216</v>
+      </c>
+      <c r="M46" s="5" t="s">
+        <v>276</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="Q46" s="1" t="s">
         <v>31</v>
@@ -3618,49 +3633,49 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>95</v>
+        <v>201</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>90</v>
+        <v>206</v>
       </c>
       <c r="F47" s="1">
         <v>1</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>92</v>
+        <v>214</v>
       </c>
       <c r="H47" s="1">
         <v>0</v>
       </c>
       <c r="I47" s="1">
-        <v>0.45</v>
+        <v>0.7</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>88</v>
+        <v>214</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>93</v>
+        <v>217</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>275</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="Q47" s="1" t="s">
         <v>31</v>
@@ -3671,49 +3686,49 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>127</v>
+        <v>207</v>
       </c>
       <c r="F48" s="1">
         <v>1</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="H48" s="1">
         <v>0</v>
       </c>
       <c r="I48" s="1">
-        <v>0.45</v>
+        <v>0.7</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>183</v>
+        <v>216</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>276</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="Q48" s="1" t="s">
         <v>31</v>
@@ -3724,49 +3739,49 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>140</v>
+        <v>208</v>
       </c>
       <c r="F49" s="1">
         <v>1</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>179</v>
+        <v>214</v>
       </c>
       <c r="H49" s="1">
         <v>0</v>
       </c>
       <c r="I49" s="1">
-        <v>0.45</v>
+        <v>0.7</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>183</v>
+        <v>217</v>
+      </c>
+      <c r="M49" s="5" t="s">
+        <v>275</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="Q49" s="1" t="s">
         <v>31</v>
@@ -3777,25 +3792,25 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>94</v>
+        <v>229</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>141</v>
+        <v>235</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>132</v>
+        <v>251</v>
       </c>
       <c r="F50" s="1">
         <v>1</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>143</v>
+      <c r="G50" s="1">
+        <v>365</v>
       </c>
       <c r="H50" s="1">
         <v>0</v>
@@ -3807,19 +3822,19 @@
         <v>61</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="Q50" s="1" t="s">
         <v>31</v>
@@ -3830,25 +3845,25 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>142</v>
+        <v>236</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>133</v>
+        <v>253</v>
       </c>
       <c r="F51" s="1">
         <v>1</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>144</v>
+      <c r="G51" s="1">
+        <v>402</v>
       </c>
       <c r="H51" s="1">
         <v>0</v>
@@ -3860,19 +3875,19 @@
         <v>61</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>148</v>
+        <v>240</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>149</v>
+        <v>244</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>150</v>
+        <v>248</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="Q51" s="1" t="s">
         <v>31</v>
@@ -3883,25 +3898,25 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>134</v>
+        <v>231</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>145</v>
+        <v>237</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>135</v>
+        <v>252</v>
       </c>
       <c r="F52" s="1">
         <v>1</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>146</v>
+      <c r="G52" s="1">
+        <v>210</v>
       </c>
       <c r="H52" s="1">
         <v>0</v>
@@ -3913,19 +3928,19 @@
         <v>61</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>151</v>
+        <v>241</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>152</v>
+        <v>245</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>153</v>
+        <v>249</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="Q52" s="1" t="s">
         <v>31</v>
@@ -3936,43 +3951,43 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>191</v>
+        <v>254</v>
       </c>
       <c r="F53" s="1">
         <v>1</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>193</v>
+      <c r="G53" s="1">
+        <v>210</v>
       </c>
       <c r="H53" s="1">
         <v>0</v>
       </c>
       <c r="I53" s="1">
-        <v>2.7</v>
+        <v>0.45</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>194</v>
+        <v>61</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>195</v>
+        <v>241</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>196</v>
+        <v>245</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>197</v>
+        <v>249</v>
       </c>
       <c r="O53" s="1" t="s">
         <v>31</v>
@@ -3989,43 +4004,43 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>190</v>
+        <v>238</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>192</v>
+        <v>255</v>
       </c>
       <c r="F54" s="1">
         <v>1</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>193</v>
+      <c r="G54" s="1">
+        <v>887</v>
       </c>
       <c r="H54" s="1">
         <v>0</v>
       </c>
       <c r="I54" s="1">
-        <v>2.7</v>
+        <v>0.45</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>194</v>
+        <v>61</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>195</v>
+        <v>242</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>196</v>
+        <v>246</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>197</v>
+        <v>250</v>
       </c>
       <c r="O54" s="1" t="s">
         <v>31</v>
@@ -4042,43 +4057,43 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>80</v>
+        <v>234</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>101</v>
+        <v>238</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>82</v>
+        <v>256</v>
       </c>
       <c r="F55" s="1">
         <v>1</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>81</v>
+      <c r="G55" s="1">
+        <v>887</v>
       </c>
       <c r="H55" s="1">
         <v>0</v>
       </c>
       <c r="I55" s="1">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>99</v>
+        <v>242</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>100</v>
+        <v>246</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>84</v>
+        <v>250</v>
       </c>
       <c r="O55" s="1" t="s">
         <v>31</v>
@@ -4095,49 +4110,49 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>131</v>
+        <v>257</v>
       </c>
       <c r="F56" s="1">
         <v>1</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="H56" s="1">
         <v>0</v>
       </c>
       <c r="I56" s="1">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>99</v>
+        <v>173</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>100</v>
+        <v>174</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="Q56" s="1" t="s">
         <v>31</v>
@@ -4148,49 +4163,49 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>154</v>
+        <v>258</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>101</v>
+        <v>259</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>155</v>
+        <v>260</v>
       </c>
       <c r="F57" s="1">
         <v>1</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>81</v>
+        <v>261</v>
       </c>
       <c r="H57" s="1">
         <v>0</v>
       </c>
       <c r="I57" s="1">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>99</v>
+        <v>262</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>100</v>
+        <v>263</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>84</v>
+        <v>264</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="Q57" s="1" t="s">
         <v>31</v>
@@ -4201,49 +4216,49 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>164</v>
+        <v>265</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>165</v>
+        <v>266</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>169</v>
+        <v>267</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>170</v>
+        <v>268</v>
       </c>
       <c r="F58" s="1">
         <v>1</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>166</v>
+        <v>269</v>
       </c>
       <c r="H58" s="1">
         <v>0</v>
       </c>
       <c r="I58" s="1">
-        <v>0.55000000000000004</v>
+        <v>0.9</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>171</v>
+        <v>270</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>168</v>
+        <v>272</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>271</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="Q58" s="1" t="s">
         <v>31</v>
@@ -4254,61 +4269,112 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>12</v>
+        <v>265</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>58</v>
+        <v>266</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>48</v>
+        <v>267</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>49</v>
+        <v>274</v>
       </c>
       <c r="F59" s="1">
         <v>1</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>50</v>
+        <v>269</v>
       </c>
       <c r="H59" s="1">
         <v>0</v>
       </c>
       <c r="I59" s="1">
-        <v>1.05</v>
+        <v>0.9</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>51</v>
+        <v>270</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>53</v>
+        <v>272</v>
+      </c>
+      <c r="L59" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="M59" s="4" t="s">
+        <v>271</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="Q59" s="1" t="s">
         <v>31</v>
       </c>
       <c r="R59" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>57</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F60" s="1">
+        <v>3</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0</v>
+      </c>
+      <c r="I60" s="1">
+        <v>8</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="M60" s="4"/>
+      <c r="O60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R60" s="1" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A3:R49" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:R59">
-      <sortCondition ref="E3:E49"/>
+      <sortCondition ref="A3:A49"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/KiCAD Project/BOM/Master BOM.xlsx
+++ b/KiCAD Project/BOM/Master BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EE\Projects\1016 Breadboard Power Supply\KiCAD Project\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BFE92F-94D9-4093-B163-515A2BD3D8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25507FA3-B1F7-479E-8851-B3C833622630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="22170" windowHeight="20370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14565" yWindow="0" windowWidth="23940" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1271,9 +1271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
